--- a/public/files/template/sms/pbk.xlsx
+++ b/public/files/template/sms/pbk.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\epuskesmas_prog\dev\public\files\template\sms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\infokes\sms\public\files\template\sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Terdaftar</t>
+  </si>
+  <si>
+    <t>No MR</t>
+  </si>
+  <si>
+    <t>No BPJS</t>
+  </si>
+  <si>
+    <t>[a.bpjs]</t>
+  </si>
+  <si>
+    <t>[a.cl_pid]</t>
   </si>
 </sst>
 </file>
@@ -124,12 +136,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:F6" totalsRowShown="0">
-  <autoFilter ref="B5:F6"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:H6" totalsRowShown="0">
+  <autoFilter ref="B5:H6"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Nomor" dataDxfId="0"/>
     <tableColumn id="3" name="Nama"/>
+    <tableColumn id="7" name="No BPJS"/>
+    <tableColumn id="6" name="No MR"/>
     <tableColumn id="4" name="Nama Grup"/>
     <tableColumn id="5" name="Terdaftar"/>
   </tableColumns>
@@ -213,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -248,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,30 +448,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -434,13 +484,19 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -451,9 +507,15 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/public/files/template/sms/pbk.xlsx
+++ b/public/files/template/sms/pbk.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>[a.cl_pid]</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>[a.nik]</t>
   </si>
 </sst>
 </file>
@@ -136,13 +142,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:H6" totalsRowShown="0">
-  <autoFilter ref="B5:H6"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B5:I6" totalsRowShown="0">
+  <autoFilter ref="B5:I6"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Nomor" dataDxfId="0"/>
     <tableColumn id="3" name="Nama"/>
     <tableColumn id="7" name="No BPJS"/>
+    <tableColumn id="8" name="NIK"/>
     <tableColumn id="6" name="No MR"/>
     <tableColumn id="4" name="Nama Grup"/>
     <tableColumn id="5" name="Terdaftar"/>
@@ -448,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -456,24 +463,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="6.125" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="5" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -487,16 +495,19 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -510,12 +521,15 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>9</v>
       </c>
     </row>
